--- a/data/trans_bre/P1805_2016_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1805_2016_2023-Edad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>0.1002742858809393</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1.016644591065737</v>
+        <v>1.016644591065736</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.05089944633700228</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.2251389630274568</v>
+        <v>0.2251389630274564</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.90047771556513</v>
+        <v>-1.842677742258928</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.823523941153238</v>
+        <v>-3.858571865693396</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.7063685916888061</v>
+        <v>-0.6581426909639756</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.6298379675887211</v>
+        <v>-0.5863211009285184</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.950741742445113</v>
+        <v>2.243495010730967</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.275372172116607</v>
+        <v>5.89239724576726</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1.860025328615385</v>
+        <v>2.537816282517564</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2.453732886808598</v>
+        <v>2.83247912239084</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>0.8434890265163407</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.232894116293844</v>
+        <v>1.232894116293845</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.665333050979435</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.4559388119578481</v>
+        <v>0.4559388119578483</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5615994801942714</v>
+        <v>-0.6451915415070583</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.022358512594683</v>
+        <v>-1.665646430503967</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3495918732681192</v>
+        <v>-0.4199827128854161</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5446315994062522</v>
+        <v>-0.4306015847769514</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.511898118481648</v>
+        <v>2.391753707753612</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.670551724009928</v>
+        <v>3.734306512107678</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.041209169718186</v>
+        <v>3.838637738058095</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.610291775873703</v>
+        <v>2.35304408124219</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>0.6204159024800544</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.4447657780903044</v>
+        <v>0.4447657780903052</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.2387518762375577</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.1127218292956766</v>
+        <v>0.1127218292956768</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.174860042659687</v>
+        <v>-1.038942159692446</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.828199757021542</v>
+        <v>-2.271936617868944</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.3787054791030838</v>
+        <v>-0.3448674758021679</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3646672492732153</v>
+        <v>-0.4127799759912967</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.539804517398981</v>
+        <v>2.503248588660974</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.63839935356328</v>
+        <v>2.539986032404772</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1.396543644023572</v>
+        <v>1.507948195300344</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.011565160866824</v>
+        <v>0.9649248281818862</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>2.306513913173007</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-0.6899284349164564</v>
+        <v>-0.6899284349164543</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>1.215947631078599</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1315102236469898</v>
+        <v>-0.1315102236469894</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4542131881427265</v>
+        <v>0.5456943280577727</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.939252278123698</v>
+        <v>-3.007640767894036</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.0845812654372778</v>
+        <v>0.1498635793649665</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4320799201667824</v>
+        <v>-0.4421699152242853</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.279114122535866</v>
+        <v>4.488629708260012</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.432717247088501</v>
+        <v>1.501687182434057</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.680346234442053</v>
+        <v>3.437664415333684</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3694772419907421</v>
+        <v>0.4033745454027065</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>3.758800368680911</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.137494559061904</v>
+        <v>2.137494559061905</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>2.182520534490775</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.7342110241715226</v>
+        <v>0.7342110241715228</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.213339671114911</v>
+        <v>1.234458013510954</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3288535764439498</v>
+        <v>0.1783274908123712</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.2548932129418009</v>
+        <v>0.3431383448248223</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.0575473964521114</v>
+        <v>0.02631918902052273</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.380612333914963</v>
+        <v>6.397518773654423</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.067105528163768</v>
+        <v>4.093300045746618</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6.644874596166464</v>
+        <v>6.965904487706199</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.205086242418114</v>
+        <v>1.929572573279064</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>3.261146166601599</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>2.381415753652554</v>
+        <v>2.381415753652553</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>2.935589121132534</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2.743834195174963</v>
+        <v>2.743834195174961</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.123766288167713</v>
+        <v>1.000255507020157</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.08926295082192</v>
+        <v>0.9833690586939244</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2339364968028812</v>
+        <v>0.3726354240611928</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5457053220111739</v>
+        <v>0.4905099026221654</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.119344966645527</v>
+        <v>6.279935317415046</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.921346747710797</v>
+        <v>3.796964371094024</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>15.68652270079117</v>
+        <v>15.76870179562016</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>10.84762734149677</v>
+        <v>10.20613213643484</v>
       </c>
     </row>
     <row r="22">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3371471034330364</v>
+        <v>0.5865435367421682</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.09651659836157607</v>
+        <v>-0.1009767887800141</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.07463964089749953</v>
+        <v>-0.06134827465244463</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.1994551705450913</v>
+        <v>-0.1312930253007358</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.131634715953769</v>
+        <v>6.393147240971531</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.999368322525292</v>
+        <v>2.931257229684215</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>11.54734710695423</v>
+        <v>10.35151361700235</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>7.005947754247951</v>
+        <v>7.033680711597662</v>
       </c>
     </row>
     <row r="25">
@@ -1040,13 +1040,13 @@
         <v>1.895128474171354</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.893263096754366</v>
+        <v>0.8932630967543653</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>1.053456987395063</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.2693368147104551</v>
+        <v>0.269336814710455</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.122934631553031</v>
+        <v>1.169990630273347</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.1113456419854506</v>
+        <v>-0.06521033936920895</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5024097142354916</v>
+        <v>0.5567873312441618</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.04434067445694224</v>
+        <v>-0.01533476423460466</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.700942969797131</v>
+        <v>2.747225083376649</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.83199775494246</v>
+        <v>1.761215332287298</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.775155452891763</v>
+        <v>1.850494353310548</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6720551374920269</v>
+        <v>0.6573504406500597</v>
       </c>
     </row>
     <row r="28">
